--- a/Table(Small Countries).xlsx
+++ b/Table(Small Countries).xlsx
@@ -435,13 +435,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.6082510522433764</v>
+        <v>0.6208328930060399</v>
       </c>
       <c r="C2">
-        <v>0.03790650666990601</v>
+        <v>0.08773686445006951</v>
       </c>
       <c r="D2">
-        <v>0.3636679723476662</v>
+        <v>0.3234623648137085</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.5447035087512294</v>
+        <v>0.5531361913892409</v>
       </c>
       <c r="C3">
-        <v>0.06795237766849983</v>
+        <v>0.06842076067892004</v>
       </c>
       <c r="D3">
-        <v>0.2700745578569255</v>
+        <v>0.2750817669680589</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.5932763357413788</v>
+        <v>0.6010405183959322</v>
       </c>
       <c r="C4">
-        <v>0.08812483333620699</v>
+        <v>0.09258179612049351</v>
       </c>
       <c r="D4">
-        <v>0.2984749291793677</v>
+        <v>0.2988250585331768</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.5535763446947818</v>
+        <v>0.5628294139970558</v>
       </c>
       <c r="C5">
-        <v>0.06930189425638818</v>
+        <v>0.06906784848224873</v>
       </c>
       <c r="D5">
-        <v>0.2775978772125895</v>
+        <v>0.284127901772545</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.7527010710191238</v>
+        <v>0.7602183349618034</v>
       </c>
       <c r="C6">
-        <v>0.2174591627784288</v>
+        <v>0.2183375143308542</v>
       </c>
       <c r="D6">
-        <v>0.3285653350148907</v>
+        <v>0.3322471568886872</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.7512172299663699</v>
+        <v>0.7574531751947924</v>
       </c>
       <c r="C7">
-        <v>0.01239353418639077</v>
+        <v>0.01238222259013114</v>
       </c>
       <c r="D7">
-        <v>0.5321471225541752</v>
+        <v>0.5354372888623992</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.6085777643166945</v>
+        <v>0.6145208828366762</v>
       </c>
       <c r="C8">
-        <v>0.043237593694994</v>
+        <v>0.04416007415934879</v>
       </c>
       <c r="D8">
-        <v>0.3586635973958965</v>
+        <v>0.3607271449350654</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.6161138148225014</v>
+        <v>0.6216135677061543</v>
       </c>
       <c r="C9">
-        <v>0.07857688628348339</v>
+        <v>0.1305649275483236</v>
       </c>
       <c r="D9">
-        <v>0.3308603553132138</v>
+        <v>0.2814149764155689</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.6554535441455969</v>
+        <v>0.6597269319910934</v>
       </c>
       <c r="C10">
-        <v>0.05278008511196654</v>
+        <v>0.1540342470273958</v>
       </c>
       <c r="D10">
-        <v>0.3959968858078262</v>
+        <v>0.2960590212214356</v>
       </c>
     </row>
   </sheetData>

--- a/Table(Small Countries).xlsx
+++ b/Table(Small Countries).xlsx
@@ -14,15 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Weighted average Price</t>
-  </si>
-  <si>
-    <t>Average cost of entry</t>
-  </si>
-  <si>
-    <t>Average generic profit</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>WAP</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>AGP</t>
+  </si>
+  <si>
+    <t>ANE</t>
+  </si>
+  <si>
+    <t>ShBP</t>
   </si>
   <si>
     <t>Model</t>
@@ -52,7 +61,10 @@
     <t>S. Korea</t>
   </si>
   <si>
-    <t>Spain</t>
+    <t>Spain 1</t>
+  </si>
+  <si>
+    <t>Spain 2</t>
   </si>
 </sst>
 </file>
@@ -410,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -429,131 +441,154 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0.6208328930060399</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.08773686445006951</v>
+        <v>0.5501206885056119</v>
       </c>
       <c r="D2">
-        <v>0.3234623648137085</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1061172024436433</v>
+      </c>
+      <c r="E2">
+        <v>0.234833258301225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.5531361913892409</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.06842076067892004</v>
+        <v>0.5046322559658242</v>
       </c>
       <c r="D3">
-        <v>0.2750817669680589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08491521396055628</v>
+      </c>
+      <c r="E3">
+        <v>0.2105468142445242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.6010405183959322</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.09258179612049351</v>
+        <v>0.5838649226069834</v>
       </c>
       <c r="D4">
-        <v>0.2988250585331768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1044826707285036</v>
+      </c>
+      <c r="E4">
+        <v>0.2702120241177361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.5628294139970558</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.06906784848224873</v>
+        <v>0.5048794243870851</v>
       </c>
       <c r="D5">
-        <v>0.284127901772545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.08619549278929674</v>
+      </c>
+      <c r="E5">
+        <v>0.2095137038370447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.7602183349618034</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.2183375143308542</v>
+        <v>0.752408653780439</v>
       </c>
       <c r="D6">
-        <v>0.3322471568886872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.2262364612549873</v>
+      </c>
+      <c r="E6">
+        <v>0.317001964764708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.7574531751947924</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.01238222259013114</v>
+        <v>0.6516140091206272</v>
       </c>
       <c r="D7">
-        <v>0.5354372888623992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.02427667425509091</v>
+      </c>
+      <c r="E7">
+        <v>0.4181671071047925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.6145208828366762</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.04416007415934879</v>
+        <v>0.5578720904972345</v>
       </c>
       <c r="D8">
-        <v>0.3607271449350654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.06080449249986122</v>
+      </c>
+      <c r="E8">
+        <v>0.2878973702366297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0.6216135677061543</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0.1305649275483236</v>
+        <v>0.5865284792204171</v>
       </c>
       <c r="D9">
-        <v>0.2814149764155689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1474217068468064</v>
+      </c>
+      <c r="E9">
+        <v>0.2299365446128671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0.6597269319910934</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>0.1540342470273958</v>
+        <v>0.6266664305238798</v>
       </c>
       <c r="D10">
-        <v>0.2960590212214356</v>
+        <v>0.1716967432380566</v>
+      </c>
+      <c r="E10">
+        <v>0.2457994595250796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>0.5433411380452613</v>
+      </c>
+      <c r="D11">
+        <v>0.1063732351743471</v>
+      </c>
+      <c r="E11">
+        <v>0.2277976751101705</v>
       </c>
     </row>
   </sheetData>

--- a/Table(Small Countries).xlsx
+++ b/Table(Small Countries).xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>WAP</t>
-  </si>
-  <si>
-    <t>ACE</t>
-  </si>
-  <si>
-    <t>AGP</t>
-  </si>
-  <si>
-    <t>ANE</t>
-  </si>
-  <si>
-    <t>ShBP</t>
+    <t>Average minimum price</t>
+  </si>
+  <si>
+    <t>Weighted average Price</t>
+  </si>
+  <si>
+    <t>Average cost of entry</t>
+  </si>
+  <si>
+    <t>Average profit</t>
+  </si>
+  <si>
+    <t>Average number of entry</t>
+  </si>
+  <si>
+    <t>Share of brand profit</t>
   </si>
   <si>
     <t>Model</t>
@@ -455,140 +455,230 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B2">
+        <v>0.383392225097907</v>
+      </c>
       <c r="C2">
-        <v>0.5501206885056119</v>
+        <v>0.5458817295952664</v>
       </c>
       <c r="D2">
-        <v>0.1061172024436433</v>
+        <v>0.1069869335134729</v>
       </c>
       <c r="E2">
-        <v>0.234833258301225</v>
+        <v>0.2310856168865453</v>
+      </c>
+      <c r="F2">
+        <v>2.0167</v>
+      </c>
+      <c r="G2">
+        <v>0.4352485849951049</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B3">
+        <v>0.383392225097907</v>
+      </c>
       <c r="C3">
-        <v>0.5046322559658242</v>
+        <v>0.503831153358697</v>
       </c>
       <c r="D3">
-        <v>0.08491521396055628</v>
+        <v>0.08547638240808013</v>
       </c>
       <c r="E3">
-        <v>0.2105468142445242</v>
+        <v>0.2105455917553688</v>
+      </c>
+      <c r="F3">
+        <v>1.2169</v>
+      </c>
+      <c r="G3">
+        <v>0.22734864894405</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B4">
+        <v>0.383392225097907</v>
+      </c>
       <c r="C4">
-        <v>0.5838649226069834</v>
+        <v>0.5834430721429414</v>
       </c>
       <c r="D4">
-        <v>0.1044826707285036</v>
+        <v>0.1045379668063858</v>
       </c>
       <c r="E4">
-        <v>0.2702120241177361</v>
+        <v>0.2710959261413076</v>
+      </c>
+      <c r="F4">
+        <v>1.479</v>
+      </c>
+      <c r="G4">
+        <v>0.04094678727376687</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B5">
+        <v>0.383392225097907</v>
+      </c>
       <c r="C5">
-        <v>0.5048794243870851</v>
+        <v>0.5027440804285425</v>
       </c>
       <c r="D5">
-        <v>0.08619549278929674</v>
+        <v>0.08656616453535543</v>
       </c>
       <c r="E5">
-        <v>0.2095137038370447</v>
+        <v>0.2083687366979389</v>
+      </c>
+      <c r="F5">
+        <v>1.3203</v>
+      </c>
+      <c r="G5">
+        <v>0.3392630068541068</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B6">
+        <v>0.383392225097907</v>
+      </c>
       <c r="C6">
-        <v>0.752408653780439</v>
+        <v>0.7525425694152046</v>
       </c>
       <c r="D6">
-        <v>0.2262364612549873</v>
+        <v>0.2263391746726318</v>
       </c>
       <c r="E6">
-        <v>0.317001964764708</v>
+        <v>0.3183942155473246</v>
+      </c>
+      <c r="F6">
+        <v>3.4278</v>
+      </c>
+      <c r="G6">
+        <v>0.01375705970054541</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B7">
+        <v>0.383392225097907</v>
+      </c>
       <c r="C7">
-        <v>0.6516140091206272</v>
+        <v>0.6468212350584186</v>
       </c>
       <c r="D7">
-        <v>0.02427667425509091</v>
+        <v>0.02507108179815737</v>
       </c>
       <c r="E7">
-        <v>0.4181671071047925</v>
+        <v>0.4139409740650131</v>
+      </c>
+      <c r="F7">
+        <v>0.361</v>
+      </c>
+      <c r="G7">
+        <v>0.9107660911590765</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B8">
+        <v>0.383392225097907</v>
+      </c>
       <c r="C8">
-        <v>0.5578720904972345</v>
+        <v>0.5559331208442403</v>
       </c>
       <c r="D8">
-        <v>0.06080449249986122</v>
+        <v>0.06114838205874109</v>
       </c>
       <c r="E8">
-        <v>0.2878973702366297</v>
+        <v>0.2869755595902511</v>
+      </c>
+      <c r="F8">
+        <v>0.7651</v>
+      </c>
+      <c r="G8">
+        <v>0.2463338837895097</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B9">
+        <v>0.383392225097907</v>
+      </c>
       <c r="C9">
-        <v>0.5865284792204171</v>
+        <v>0.5848348469783033</v>
       </c>
       <c r="D9">
-        <v>0.1474217068468064</v>
+        <v>0.1478296997984644</v>
       </c>
       <c r="E9">
-        <v>0.2299365446128671</v>
+        <v>0.2291959679845907</v>
+      </c>
+      <c r="F9">
+        <v>2.7468</v>
+      </c>
+      <c r="G9">
+        <v>0.1494107492571074</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B10">
+        <v>0.383392225097907</v>
+      </c>
       <c r="C10">
-        <v>0.6266664305238798</v>
+        <v>0.625359921692239</v>
       </c>
       <c r="D10">
-        <v>0.1716967432380566</v>
+        <v>0.172392173803998</v>
       </c>
       <c r="E10">
-        <v>0.2457994595250796</v>
+        <v>0.2451585686929928</v>
+      </c>
+      <c r="F10">
+        <v>3.2484</v>
+      </c>
+      <c r="G10">
+        <v>0.1358056600538771</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B11">
+        <v>0.383392225097907</v>
+      </c>
       <c r="C11">
-        <v>0.5433411380452613</v>
+        <v>0.5409867442290125</v>
       </c>
       <c r="D11">
-        <v>0.1063732351743471</v>
+        <v>0.1065986663243421</v>
       </c>
       <c r="E11">
-        <v>0.2277976751101705</v>
+        <v>0.2265788987094222</v>
+      </c>
+      <c r="F11">
+        <v>1.8459</v>
+      </c>
+      <c r="G11">
+        <v>0.1469418442266935</v>
       </c>
     </row>
   </sheetData>

--- a/Table(Small Countries).xlsx
+++ b/Table(Small Countries).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Average minimum price</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Share of brand profit</t>
+  </si>
+  <si>
+    <t>Proportion of markets with 0 entrants</t>
+  </si>
+  <si>
+    <t>Proportion of markets with 1 entrant</t>
   </si>
   <si>
     <t>Model</t>
@@ -422,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -450,235 +456,301 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.383392225097907</v>
+        <v>0.2996442557559423</v>
       </c>
       <c r="C2">
-        <v>0.5458817295952664</v>
+        <v>0.477027574102807</v>
       </c>
       <c r="D2">
-        <v>0.1069869335134729</v>
+        <v>0.144423005799295</v>
       </c>
       <c r="E2">
-        <v>0.2310856168865453</v>
+        <v>0.2162585383864749</v>
       </c>
       <c r="F2">
-        <v>2.0167</v>
+        <v>2.7176</v>
       </c>
       <c r="G2">
-        <v>0.4352485849951049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.171806949645163</v>
+      </c>
+      <c r="H2">
+        <v>0.1776</v>
+      </c>
+      <c r="I2">
+        <v>0.3999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.383392225097907</v>
+        <v>0.2996442557559423</v>
       </c>
       <c r="C3">
-        <v>0.503831153358697</v>
+        <v>0.4349035074096959</v>
       </c>
       <c r="D3">
-        <v>0.08547638240808013</v>
+        <v>0.1047998380658951</v>
       </c>
       <c r="E3">
-        <v>0.2105455917553688</v>
+        <v>0.2137576394267638</v>
       </c>
       <c r="F3">
-        <v>1.2169</v>
+        <v>1.5138</v>
       </c>
       <c r="G3">
-        <v>0.22734864894405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.08798397207087692</v>
+      </c>
+      <c r="H3">
+        <v>0.1241</v>
+      </c>
+      <c r="I3">
+        <v>0.5082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.383392225097907</v>
+        <v>0.2996442557559423</v>
       </c>
       <c r="C4">
-        <v>0.5834430721429414</v>
+        <v>0.5260687268960046</v>
       </c>
       <c r="D4">
-        <v>0.1045379668063858</v>
+        <v>0.119730493490914</v>
       </c>
       <c r="E4">
-        <v>0.2710959261413076</v>
+        <v>0.2899922034880536</v>
       </c>
       <c r="F4">
-        <v>1.479</v>
+        <v>1.773</v>
       </c>
       <c r="G4">
-        <v>0.04094678727376687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.02283924343901068</v>
+      </c>
+      <c r="H4">
+        <v>0.0712</v>
+      </c>
+      <c r="I4">
+        <v>0.4554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.383392225097907</v>
+        <v>0.2996442557559423</v>
       </c>
       <c r="C5">
-        <v>0.5027440804285425</v>
+        <v>0.4286970443505175</v>
       </c>
       <c r="D5">
-        <v>0.08656616453535543</v>
+        <v>0.1112112214605152</v>
       </c>
       <c r="E5">
-        <v>0.2083687366979389</v>
+        <v>0.2011397929729652</v>
       </c>
       <c r="F5">
-        <v>1.3203</v>
+        <v>1.7142</v>
       </c>
       <c r="G5">
-        <v>0.3392630068541068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.1306636808275441</v>
+      </c>
+      <c r="H5">
+        <v>0.1475</v>
+      </c>
+      <c r="I5">
+        <v>0.4739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.383392225097907</v>
+        <v>0.2996442557559423</v>
       </c>
       <c r="C6">
-        <v>0.7525425694152046</v>
+        <v>0.7203241633681179</v>
       </c>
       <c r="D6">
-        <v>0.2263391746726318</v>
+        <v>0.2544155297867217</v>
       </c>
       <c r="E6">
-        <v>0.3183942155473246</v>
+        <v>0.3495626036643592</v>
       </c>
       <c r="F6">
-        <v>3.4278</v>
+        <v>3.8524</v>
       </c>
       <c r="G6">
-        <v>0.01375705970054541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01053528835220934</v>
+      </c>
+      <c r="H6">
+        <v>0.0509</v>
+      </c>
+      <c r="I6">
+        <v>0.2304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.383392225097907</v>
+        <v>0.2996442557559423</v>
       </c>
       <c r="C7">
-        <v>0.6468212350584186</v>
+        <v>0.4540881668730041</v>
       </c>
       <c r="D7">
-        <v>0.02507108179815737</v>
+        <v>0.03999210284973956</v>
       </c>
       <c r="E7">
-        <v>0.4139409740650131</v>
+        <v>0.2977500341062275</v>
       </c>
       <c r="F7">
-        <v>0.361</v>
+        <v>0.5715</v>
       </c>
       <c r="G7">
-        <v>0.9107660911590765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.7855441137089022</v>
+      </c>
+      <c r="H7">
+        <v>0.4773</v>
+      </c>
+      <c r="I7">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.383392225097907</v>
+        <v>0.2996442557559423</v>
       </c>
       <c r="C8">
-        <v>0.5559331208442403</v>
+        <v>0.5010246313756517</v>
       </c>
       <c r="D8">
-        <v>0.06114838205874109</v>
+        <v>0.07140514643252011</v>
       </c>
       <c r="E8">
-        <v>0.2869755595902511</v>
+        <v>0.3132734550260945</v>
       </c>
       <c r="F8">
-        <v>0.7651</v>
+        <v>0.8935</v>
       </c>
       <c r="G8">
-        <v>0.2463338837895097</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.08389368868980186</v>
+      </c>
+      <c r="H8">
+        <v>0.1475</v>
+      </c>
+      <c r="I8">
+        <v>0.8328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.383392225097907</v>
+        <v>0.2996442557559423</v>
       </c>
       <c r="C9">
-        <v>0.5848348469783033</v>
+        <v>0.5578627819026221</v>
       </c>
       <c r="D9">
-        <v>0.1478296997984644</v>
+        <v>0.1859371084094522</v>
       </c>
       <c r="E9">
-        <v>0.2291959679845907</v>
+        <v>0.2555796435761328</v>
       </c>
       <c r="F9">
-        <v>2.7468</v>
+        <v>3.477</v>
       </c>
       <c r="G9">
-        <v>0.1494107492571074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.05490638558060258</v>
+      </c>
+      <c r="H9">
+        <v>0.1067</v>
+      </c>
+      <c r="I9">
+        <v>0.3882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.383392225097907</v>
+        <v>0.2996442557559423</v>
       </c>
       <c r="C10">
-        <v>0.625359921692239</v>
+        <v>0.6067997625377851</v>
       </c>
       <c r="D10">
-        <v>0.172392173803998</v>
+        <v>0.2138915467575093</v>
       </c>
       <c r="E10">
-        <v>0.2451585686929928</v>
+        <v>0.2765621858632387</v>
       </c>
       <c r="F10">
-        <v>3.2484</v>
+        <v>4.0179</v>
       </c>
       <c r="G10">
-        <v>0.1358056600538771</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.04908207217667335</v>
+      </c>
+      <c r="H10">
+        <v>0.1051</v>
+      </c>
+      <c r="I10">
+        <v>0.3356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.383392225097907</v>
+        <v>0.2996442557559423</v>
       </c>
       <c r="C11">
-        <v>0.5409867442290125</v>
+        <v>0.4888646629681248</v>
       </c>
       <c r="D11">
-        <v>0.1065986663243421</v>
+        <v>0.1345981979744091</v>
       </c>
       <c r="E11">
-        <v>0.2265788987094222</v>
+        <v>0.2379204350766786</v>
       </c>
       <c r="F11">
-        <v>1.8459</v>
+        <v>2.4108</v>
       </c>
       <c r="G11">
-        <v>0.1469418442266935</v>
+        <v>0.0570537169852738</v>
+      </c>
+      <c r="H11">
+        <v>0.1051</v>
+      </c>
+      <c r="I11">
+        <v>0.5272</v>
       </c>
     </row>
   </sheetData>
